--- a/company profit.xlsx
+++ b/company profit.xlsx
@@ -1215,13 +1215,13 @@
         <v>41299</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>35924964.4</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>26224601.97044335</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>-9700362.429556645</v>
       </c>
     </row>
     <row r="47">
@@ -1402,13 +1402,13 @@
         <v>41376</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>54532493.4</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>34003852.21674877</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>-20528641.18325123</v>
       </c>
     </row>
     <row r="58">
@@ -1453,13 +1453,13 @@
         <v>41397</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>17960771.2</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>16595101.47783251</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>-1365669.722167486</v>
       </c>
     </row>
     <row r="61">
@@ -1640,13 +1640,13 @@
         <v>41474</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>49095907.7</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>29936482.75862069</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>-19159424.9413793</v>
       </c>
     </row>
     <row r="72">
@@ -1708,13 +1708,13 @@
         <v>41502</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>20577319.8</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>18220689.65517242</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>-2356630.144827586</v>
       </c>
     </row>
     <row r="76">
@@ -3255,13 +3255,13 @@
         <v>42139</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>130463407.1</v>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>75974868.96551724</v>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
+        <v>-54488538.13448277</v>
       </c>
     </row>
     <row r="167">
@@ -3306,13 +3306,13 @@
         <v>42160</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>30455494.8</v>
       </c>
       <c r="D169" t="n">
-        <v>0</v>
+        <v>25943427.5862069</v>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>-4512067.213793103</v>
       </c>
     </row>
     <row r="170">
@@ -3425,13 +3425,13 @@
         <v>42209</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>55052061.2</v>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>31964187.19211823</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>-23087874.00788177</v>
       </c>
     </row>
     <row r="177">
@@ -3527,13 +3527,13 @@
         <v>42251</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>47133709</v>
       </c>
       <c r="D182" t="n">
-        <v>0</v>
+        <v>27513024.63054187</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>-19620684.36945813</v>
       </c>
     </row>
     <row r="183">
@@ -3612,13 +3612,13 @@
         <v>42286</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>39482724.2</v>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>28519527.09359606</v>
       </c>
       <c r="E187" t="n">
-        <v>0</v>
+        <v>-10963197.10640394</v>
       </c>
     </row>
     <row r="188">
@@ -3697,13 +3697,13 @@
         <v>42321</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>41221940</v>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>30898417.73399015</v>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>-10323522.26600985</v>
       </c>
     </row>
     <row r="193">
@@ -3816,13 +3816,13 @@
         <v>42370</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>59988192.1</v>
       </c>
       <c r="D199" t="n">
-        <v>0</v>
+        <v>37111172.4137931</v>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
+        <v>-22877019.6862069</v>
       </c>
     </row>
     <row r="200">
@@ -3867,13 +3867,13 @@
         <v>42391</v>
       </c>
       <c r="C202" t="n">
-        <v>0</v>
+        <v>26309764.8</v>
       </c>
       <c r="D202" t="n">
-        <v>0</v>
+        <v>25088949.75369458</v>
       </c>
       <c r="E202" t="n">
-        <v>0</v>
+        <v>-1220815.046305418</v>
       </c>
     </row>
     <row r="203">
@@ -4020,13 +4020,13 @@
         <v>42454</v>
       </c>
       <c r="C211" t="n">
-        <v>0</v>
+        <v>92211701.90000001</v>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>55886551.72413793</v>
       </c>
       <c r="E211" t="n">
-        <v>0</v>
+        <v>-36325150.17586207</v>
       </c>
     </row>
     <row r="212">
@@ -4088,13 +4088,13 @@
         <v>42482</v>
       </c>
       <c r="C215" t="n">
-        <v>0</v>
+        <v>36875384</v>
       </c>
       <c r="D215" t="n">
-        <v>0</v>
+        <v>28147466.9950739</v>
       </c>
       <c r="E215" t="n">
-        <v>0</v>
+        <v>-8727917.004926104</v>
       </c>
     </row>
     <row r="216">
@@ -4122,13 +4122,13 @@
         <v>42496</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>20920529.3</v>
       </c>
       <c r="D217" t="n">
-        <v>0</v>
+        <v>23201988.1773399</v>
       </c>
       <c r="E217" t="n">
-        <v>0</v>
+        <v>2281458.877339903</v>
       </c>
     </row>
     <row r="218">
@@ -4139,13 +4139,13 @@
         <v>42503</v>
       </c>
       <c r="C218" t="n">
-        <v>0</v>
+        <v>16425359.3</v>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>23173351.72413793</v>
       </c>
       <c r="E218" t="n">
-        <v>0</v>
+        <v>6747992.424137933</v>
       </c>
     </row>
     <row r="219">
@@ -4326,13 +4326,13 @@
         <v>42580</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>101002552.1</v>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>58710798.02955665</v>
       </c>
       <c r="E229" t="n">
-        <v>0</v>
+        <v>-42291754.07044334</v>
       </c>
     </row>
     <row r="230">
@@ -4513,13 +4513,13 @@
         <v>42657</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>129496922</v>
       </c>
       <c r="D240" t="n">
-        <v>0</v>
+        <v>74336600.98522168</v>
       </c>
       <c r="E240" t="n">
-        <v>0</v>
+        <v>-55160321.01477832</v>
       </c>
     </row>
     <row r="241">
@@ -4530,13 +4530,13 @@
         <v>42664</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>18623143.6</v>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>29091613.79310345</v>
       </c>
       <c r="E241" t="n">
-        <v>0</v>
+        <v>10468470.19310345</v>
       </c>
     </row>
     <row r="242">
@@ -4717,13 +4717,13 @@
         <v>42741</v>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>126966003.2</v>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>69538995.07389162</v>
       </c>
       <c r="E252" t="n">
-        <v>0</v>
+        <v>-57427008.12610838</v>
       </c>
     </row>
     <row r="253">
@@ -4802,13 +4802,13 @@
         <v>42776</v>
       </c>
       <c r="C257" t="n">
-        <v>0</v>
+        <v>55518336.1</v>
       </c>
       <c r="D257" t="n">
-        <v>0</v>
+        <v>37492110.34482758</v>
       </c>
       <c r="E257" t="n">
-        <v>0</v>
+        <v>-18026225.75517242</v>
       </c>
     </row>
     <row r="258">
@@ -4955,13 +4955,13 @@
         <v>42839</v>
       </c>
       <c r="C266" t="n">
-        <v>0</v>
+        <v>101976157.4</v>
       </c>
       <c r="D266" t="n">
-        <v>0</v>
+        <v>54020953.69458128</v>
       </c>
       <c r="E266" t="n">
-        <v>0</v>
+        <v>-47955203.70541871</v>
       </c>
     </row>
     <row r="267">
@@ -5057,13 +5057,13 @@
         <v>42881</v>
       </c>
       <c r="C272" t="n">
-        <v>0</v>
+        <v>60014430.7</v>
       </c>
       <c r="D272" t="n">
-        <v>0</v>
+        <v>35175156.65024631</v>
       </c>
       <c r="E272" t="n">
-        <v>0</v>
+        <v>-24839274.0497537</v>
       </c>
     </row>
     <row r="273">
@@ -5159,13 +5159,13 @@
         <v>42923</v>
       </c>
       <c r="C278" t="n">
-        <v>0</v>
+        <v>56256357</v>
       </c>
       <c r="D278" t="n">
-        <v>0</v>
+        <v>35137040.39408867</v>
       </c>
       <c r="E278" t="n">
-        <v>0</v>
+        <v>-21119316.60591133</v>
       </c>
     </row>
     <row r="279">
@@ -5261,13 +5261,13 @@
         <v>42965</v>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>57497122</v>
       </c>
       <c r="D284" t="n">
-        <v>0</v>
+        <v>36458915.27093597</v>
       </c>
       <c r="E284" t="n">
-        <v>0</v>
+        <v>-21038206.72906403</v>
       </c>
     </row>
     <row r="285">
@@ -5329,13 +5329,13 @@
         <v>42993</v>
       </c>
       <c r="C288" t="n">
-        <v>0</v>
+        <v>40104206.2</v>
       </c>
       <c r="D288" t="n">
-        <v>0</v>
+        <v>31815586.20689655</v>
       </c>
       <c r="E288" t="n">
-        <v>0</v>
+        <v>-8288619.993103441</v>
       </c>
     </row>
     <row r="289">
@@ -5414,13 +5414,13 @@
         <v>43028</v>
       </c>
       <c r="C293" t="n">
-        <v>0</v>
+        <v>52170666.59999999</v>
       </c>
       <c r="D293" t="n">
-        <v>0</v>
+        <v>38175467.98029557</v>
       </c>
       <c r="E293" t="n">
-        <v>0</v>
+        <v>-13995198.61970443</v>
       </c>
     </row>
     <row r="294">
@@ -5465,13 +5465,13 @@
         <v>43049</v>
       </c>
       <c r="C296" t="n">
-        <v>0</v>
+        <v>33464047.1</v>
       </c>
       <c r="D296" t="n">
-        <v>0</v>
+        <v>31467342.85714286</v>
       </c>
       <c r="E296" t="n">
-        <v>0</v>
+        <v>-1996704.24285714</v>
       </c>
     </row>
     <row r="297">
@@ -5482,13 +5482,13 @@
         <v>43056</v>
       </c>
       <c r="C297" t="n">
-        <v>0</v>
+        <v>16403417.1</v>
       </c>
       <c r="D297" t="n">
-        <v>0</v>
+        <v>27687079.80295567</v>
       </c>
       <c r="E297" t="n">
-        <v>0</v>
+        <v>11283662.70295567</v>
       </c>
     </row>
     <row r="298">
@@ -5499,13 +5499,13 @@
         <v>43063</v>
       </c>
       <c r="C298" t="n">
-        <v>0</v>
+        <v>18770878.9</v>
       </c>
       <c r="D298" t="n">
-        <v>0</v>
+        <v>27252528.07881774</v>
       </c>
       <c r="E298" t="n">
-        <v>0</v>
+        <v>8481649.178817738</v>
       </c>
     </row>
     <row r="299">
@@ -5686,13 +5686,13 @@
         <v>43140</v>
       </c>
       <c r="C309" t="n">
-        <v>0</v>
+        <v>139982709.9</v>
       </c>
       <c r="D309" t="n">
-        <v>0</v>
+        <v>94022733.99014778</v>
       </c>
       <c r="E309" t="n">
-        <v>0</v>
+        <v>-45959975.90985222</v>
       </c>
     </row>
     <row r="310">
@@ -5754,13 +5754,13 @@
         <v>43168</v>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
+        <v>54289185.4</v>
       </c>
       <c r="D313" t="n">
-        <v>0</v>
+        <v>41153639.40886699</v>
       </c>
       <c r="E313" t="n">
-        <v>0</v>
+        <v>-13135545.991133</v>
       </c>
     </row>
     <row r="314">
@@ -5788,13 +5788,13 @@
         <v>43182</v>
       </c>
       <c r="C315" t="n">
-        <v>0</v>
+        <v>28191155.7</v>
       </c>
       <c r="D315" t="n">
-        <v>0</v>
+        <v>33440655.1724138</v>
       </c>
       <c r="E315" t="n">
-        <v>0</v>
+        <v>5249499.472413797</v>
       </c>
     </row>
     <row r="316">
@@ -6043,13 +6043,13 @@
         <v>43287</v>
       </c>
       <c r="C330" t="n">
-        <v>0</v>
+        <v>132429855.8</v>
       </c>
       <c r="D330" t="n">
-        <v>0</v>
+        <v>79666108.37438424</v>
       </c>
       <c r="E330" t="n">
-        <v>0</v>
+        <v>-52763747.42561576</v>
       </c>
     </row>
     <row r="331">
@@ -6077,13 +6077,13 @@
         <v>43301</v>
       </c>
       <c r="C332" t="n">
-        <v>0</v>
+        <v>33396910.3</v>
       </c>
       <c r="D332" t="n">
-        <v>0</v>
+        <v>38534643.3497537</v>
       </c>
       <c r="E332" t="n">
-        <v>0</v>
+        <v>5137733.049753699</v>
       </c>
     </row>
     <row r="333">
@@ -6179,13 +6179,13 @@
         <v>43343</v>
       </c>
       <c r="C338" t="n">
-        <v>0</v>
+        <v>75374766.90000001</v>
       </c>
       <c r="D338" t="n">
-        <v>0</v>
+        <v>48912574.38423645</v>
       </c>
       <c r="E338" t="n">
-        <v>0</v>
+        <v>-26462192.51576355</v>
       </c>
     </row>
     <row r="339">
@@ -6366,13 +6366,13 @@
         <v>43420</v>
       </c>
       <c r="C349" t="n">
-        <v>0</v>
+        <v>130786147.8</v>
       </c>
       <c r="D349" t="n">
-        <v>0</v>
+        <v>76154744.82758622</v>
       </c>
       <c r="E349" t="n">
-        <v>0</v>
+        <v>-54631402.97241378</v>
       </c>
     </row>
     <row r="350">
@@ -6417,13 +6417,13 @@
         <v>43441</v>
       </c>
       <c r="C352" t="n">
-        <v>0</v>
+        <v>44799751</v>
       </c>
       <c r="D352" t="n">
-        <v>0</v>
+        <v>41783503.44827587</v>
       </c>
       <c r="E352" t="n">
-        <v>0</v>
+        <v>-3016247.551724128</v>
       </c>
     </row>
     <row r="353">
@@ -6434,13 +6434,13 @@
         <v>43448</v>
       </c>
       <c r="C353" t="n">
-        <v>0</v>
+        <v>20014136.9</v>
       </c>
       <c r="D353" t="n">
-        <v>0</v>
+        <v>36179929.06403941</v>
       </c>
       <c r="E353" t="n">
-        <v>0</v>
+        <v>16165792.16403941</v>
       </c>
     </row>
     <row r="354">
@@ -6468,13 +6468,13 @@
         <v>43462</v>
       </c>
       <c r="C355" t="n">
-        <v>0</v>
+        <v>29992235.6</v>
       </c>
       <c r="D355" t="n">
-        <v>0</v>
+        <v>38781773.39901478</v>
       </c>
       <c r="E355" t="n">
-        <v>0</v>
+        <v>8789537.799014781</v>
       </c>
     </row>
     <row r="356">
@@ -6570,13 +6570,13 @@
         <v>43504</v>
       </c>
       <c r="C361" t="n">
-        <v>0</v>
+        <v>77592903.19999999</v>
       </c>
       <c r="D361" t="n">
-        <v>0</v>
+        <v>51548153.69458128</v>
       </c>
       <c r="E361" t="n">
-        <v>0</v>
+        <v>-26044749.50541871</v>
       </c>
     </row>
     <row r="362">
@@ -6655,13 +6655,13 @@
         <v>43539</v>
       </c>
       <c r="C366" t="n">
-        <v>0</v>
+        <v>67123232.3</v>
       </c>
       <c r="D366" t="n">
-        <v>0</v>
+        <v>49440165.51724138</v>
       </c>
       <c r="E366" t="n">
-        <v>0</v>
+        <v>-17683066.78275862</v>
       </c>
     </row>
     <row r="367">
@@ -6791,13 +6791,13 @@
         <v>43595</v>
       </c>
       <c r="C374" t="n">
-        <v>0</v>
+        <v>118203067.1</v>
       </c>
       <c r="D374" t="n">
-        <v>0</v>
+        <v>74622817.73399015</v>
       </c>
       <c r="E374" t="n">
-        <v>0</v>
+        <v>-43580249.36600985</v>
       </c>
     </row>
     <row r="375">
@@ -6876,13 +6876,13 @@
         <v>43630</v>
       </c>
       <c r="C379" t="n">
-        <v>0</v>
+        <v>68348745.10000001</v>
       </c>
       <c r="D379" t="n">
-        <v>0</v>
+        <v>47326993.10344828</v>
       </c>
       <c r="E379" t="n">
-        <v>0</v>
+        <v>-21021751.99655173</v>
       </c>
     </row>
     <row r="380">
@@ -6910,13 +6910,13 @@
         <v>43644</v>
       </c>
       <c r="C381" t="n">
-        <v>0</v>
+        <v>28967283</v>
       </c>
       <c r="D381" t="n">
-        <v>0</v>
+        <v>36239148.76847291</v>
       </c>
       <c r="E381" t="n">
-        <v>0</v>
+        <v>7271865.768472914</v>
       </c>
     </row>
     <row r="382">
@@ -7046,13 +7046,13 @@
         <v>43700</v>
       </c>
       <c r="C389" t="n">
-        <v>0</v>
+        <v>114417634.6</v>
       </c>
       <c r="D389" t="n">
-        <v>0</v>
+        <v>73008662.06896552</v>
       </c>
       <c r="E389" t="n">
-        <v>0</v>
+        <v>-41408972.53103447</v>
       </c>
     </row>
     <row r="390">
@@ -7114,13 +7114,13 @@
         <v>43728</v>
       </c>
       <c r="C393" t="n">
-        <v>0</v>
+        <v>57181140.5</v>
       </c>
       <c r="D393" t="n">
-        <v>0</v>
+        <v>43848527.09359606</v>
       </c>
       <c r="E393" t="n">
-        <v>0</v>
+        <v>-13332613.40640394</v>
       </c>
     </row>
     <row r="394">
@@ -7267,13 +7267,13 @@
         <v>43791</v>
       </c>
       <c r="C402" t="n">
-        <v>0</v>
+        <v>131647257.6</v>
       </c>
       <c r="D402" t="n">
-        <v>0</v>
+        <v>74715901.47783251</v>
       </c>
       <c r="E402" t="n">
-        <v>0</v>
+        <v>-56931356.12216748</v>
       </c>
     </row>
     <row r="403">
@@ -7301,13 +7301,13 @@
         <v>43805</v>
       </c>
       <c r="C404" t="n">
-        <v>0</v>
+        <v>35155133.8</v>
       </c>
       <c r="D404" t="n">
-        <v>0</v>
+        <v>41945292.61083744</v>
       </c>
       <c r="E404" t="n">
-        <v>0</v>
+        <v>6790158.810837448</v>
       </c>
     </row>
     <row r="405">
@@ -7318,13 +7318,13 @@
         <v>43812</v>
       </c>
       <c r="C405" t="n">
-        <v>0</v>
+        <v>21575897.5</v>
       </c>
       <c r="D405" t="n">
-        <v>0</v>
+        <v>40237205.91133005</v>
       </c>
       <c r="E405" t="n">
-        <v>0</v>
+        <v>18661308.41133005</v>
       </c>
     </row>
     <row r="406">
@@ -7454,13 +7454,13 @@
         <v>43868</v>
       </c>
       <c r="C413" t="n">
-        <v>0</v>
+        <v>127980981.8</v>
       </c>
       <c r="D413" t="n">
-        <v>0</v>
+        <v>79620275.86206897</v>
       </c>
       <c r="E413" t="n">
-        <v>0</v>
+        <v>-48360705.93793103</v>
       </c>
     </row>
     <row r="414">
@@ -7658,13 +7658,13 @@
         <v>43952</v>
       </c>
       <c r="C425" t="n">
-        <v>0</v>
+        <v>133170003.9</v>
       </c>
       <c r="D425" t="n">
-        <v>0</v>
+        <v>80869832.51231527</v>
       </c>
       <c r="E425" t="n">
-        <v>0</v>
+        <v>-52300171.38768473</v>
       </c>
     </row>
     <row r="426">
@@ -7675,13 +7675,13 @@
         <v>43959</v>
       </c>
       <c r="C426" t="n">
-        <v>0</v>
+        <v>24798452.6</v>
       </c>
       <c r="D426" t="n">
-        <v>0</v>
+        <v>41486234.48275862</v>
       </c>
       <c r="E426" t="n">
-        <v>0</v>
+        <v>16687781.88275862</v>
       </c>
     </row>
     <row r="427">
@@ -7726,13 +7726,13 @@
         <v>43980</v>
       </c>
       <c r="C429" t="n">
-        <v>0</v>
+        <v>46131089.8</v>
       </c>
       <c r="D429" t="n">
-        <v>0</v>
+        <v>46464985.22167488</v>
       </c>
       <c r="E429" t="n">
-        <v>0</v>
+        <v>333895.4216748849</v>
       </c>
     </row>
     <row r="430">
@@ -7794,13 +7794,13 @@
         <v>44008</v>
       </c>
       <c r="C433" t="n">
-        <v>0</v>
+        <v>57821395.2</v>
       </c>
       <c r="D433" t="n">
-        <v>0</v>
+        <v>47861001.97044335</v>
       </c>
       <c r="E433" t="n">
-        <v>0</v>
+        <v>-9960393.229556642</v>
       </c>
     </row>
     <row r="434">
@@ -7896,13 +7896,13 @@
         <v>44050</v>
       </c>
       <c r="C439" t="n">
-        <v>0</v>
+        <v>93793827.8</v>
       </c>
       <c r="D439" t="n">
-        <v>0</v>
+        <v>63279259.1133005</v>
       </c>
       <c r="E439" t="n">
-        <v>0</v>
+        <v>-30514568.68669949</v>
       </c>
     </row>
     <row r="440">
@@ -7947,13 +7947,13 @@
         <v>44071</v>
       </c>
       <c r="C442" t="n">
-        <v>0</v>
+        <v>49863334.1</v>
       </c>
       <c r="D442" t="n">
-        <v>0</v>
+        <v>45781138.91625617</v>
       </c>
       <c r="E442" t="n">
-        <v>0</v>
+        <v>-4082195.183743834</v>
       </c>
     </row>
     <row r="443">
@@ -7981,13 +7981,13 @@
         <v>44085</v>
       </c>
       <c r="C444" t="n">
-        <v>0</v>
+        <v>35556388.4</v>
       </c>
       <c r="D444" t="n">
-        <v>0</v>
+        <v>43172828.57142857</v>
       </c>
       <c r="E444" t="n">
-        <v>0</v>
+        <v>7616440.171428569</v>
       </c>
     </row>
     <row r="445">
@@ -8066,13 +8066,13 @@
         <v>44120</v>
       </c>
       <c r="C449" t="n">
-        <v>0</v>
+        <v>74043626.5</v>
       </c>
       <c r="D449" t="n">
-        <v>0</v>
+        <v>55124057.14285714</v>
       </c>
       <c r="E449" t="n">
-        <v>0</v>
+        <v>-18919569.35714286</v>
       </c>
     </row>
     <row r="450">
@@ -8151,13 +8151,13 @@
         <v>44155</v>
       </c>
       <c r="C454" t="n">
-        <v>0</v>
+        <v>78988644.09999999</v>
       </c>
       <c r="D454" t="n">
-        <v>0</v>
+        <v>55693556.65024631</v>
       </c>
       <c r="E454" t="n">
-        <v>0</v>
+        <v>-23295087.44975369</v>
       </c>
     </row>
     <row r="455">
@@ -8168,13 +8168,13 @@
         <v>44162</v>
       </c>
       <c r="C455" t="n">
-        <v>0</v>
+        <v>22145408.1</v>
       </c>
       <c r="D455" t="n">
-        <v>0</v>
+        <v>39538563.54679803</v>
       </c>
       <c r="E455" t="n">
-        <v>0</v>
+        <v>17393155.44679803</v>
       </c>
     </row>
     <row r="456">
@@ -8287,13 +8287,13 @@
         <v>44211</v>
       </c>
       <c r="C462" t="n">
-        <v>0</v>
+        <v>115832166.7</v>
       </c>
       <c r="D462" t="n">
-        <v>0</v>
+        <v>82930656.15763548</v>
       </c>
       <c r="E462" t="n">
-        <v>0</v>
+        <v>-32901510.54236452</v>
       </c>
     </row>
     <row r="463">
@@ -8304,13 +8304,13 @@
         <v>44218</v>
       </c>
       <c r="C463" t="n">
-        <v>0</v>
+        <v>23847290.5</v>
       </c>
       <c r="D463" t="n">
-        <v>0</v>
+        <v>43469710.34482759</v>
       </c>
       <c r="E463" t="n">
-        <v>0</v>
+        <v>19622419.84482759</v>
       </c>
     </row>
     <row r="464">
@@ -8321,13 +8321,13 @@
         <v>44225</v>
       </c>
       <c r="C464" t="n">
-        <v>0</v>
+        <v>25003939.9</v>
       </c>
       <c r="D464" t="n">
-        <v>0</v>
+        <v>42518324.13793104</v>
       </c>
       <c r="E464" t="n">
-        <v>0</v>
+        <v>17514384.23793104</v>
       </c>
     </row>
     <row r="465">
@@ -8338,13 +8338,13 @@
         <v>44232</v>
       </c>
       <c r="C465" t="n">
-        <v>0</v>
+        <v>22844855.2</v>
       </c>
       <c r="D465" t="n">
-        <v>0</v>
+        <v>42796788.1773399</v>
       </c>
       <c r="E465" t="n">
-        <v>0</v>
+        <v>19951932.9773399</v>
       </c>
     </row>
     <row r="466">
@@ -8423,13 +8423,13 @@
         <v>44267</v>
       </c>
       <c r="C470" t="n">
-        <v>0</v>
+        <v>80547987.2</v>
       </c>
       <c r="D470" t="n">
-        <v>0</v>
+        <v>61138945.81280789</v>
       </c>
       <c r="E470" t="n">
-        <v>0</v>
+        <v>-19409041.38719212</v>
       </c>
     </row>
     <row r="471">
@@ -8491,13 +8491,13 @@
         <v>44295</v>
       </c>
       <c r="C474" t="n">
-        <v>0</v>
+        <v>63778019.6</v>
       </c>
       <c r="D474" t="n">
-        <v>0</v>
+        <v>50775097.53694581</v>
       </c>
       <c r="E474" t="n">
-        <v>0</v>
+        <v>-13002922.06305419</v>
       </c>
     </row>
     <row r="475">
@@ -8610,13 +8610,13 @@
         <v>44344</v>
       </c>
       <c r="C481" t="n">
-        <v>0</v>
+        <v>121950226</v>
       </c>
       <c r="D481" t="n">
-        <v>0</v>
+        <v>78665320.19704434</v>
       </c>
       <c r="E481" t="n">
-        <v>0</v>
+        <v>-43284905.80295566</v>
       </c>
     </row>
     <row r="482">
@@ -8678,13 +8678,13 @@
         <v>44372</v>
       </c>
       <c r="C485" t="n">
-        <v>0</v>
+        <v>61792396.5</v>
       </c>
       <c r="D485" t="n">
-        <v>0</v>
+        <v>49039393.10344827</v>
       </c>
       <c r="E485" t="n">
-        <v>0</v>
+        <v>-12753003.39655173</v>
       </c>
     </row>
     <row r="486">
@@ -8797,13 +8797,13 @@
         <v>44421</v>
       </c>
       <c r="C492" t="n">
-        <v>0</v>
+        <v>115049530.2</v>
       </c>
       <c r="D492" t="n">
-        <v>0</v>
+        <v>79011131.03448276</v>
       </c>
       <c r="E492" t="n">
-        <v>0</v>
+        <v>-36038399.16551724</v>
       </c>
     </row>
     <row r="493">
@@ -8865,13 +8865,13 @@
         <v>44449</v>
       </c>
       <c r="C496" t="n">
-        <v>0</v>
+        <v>63573015.8</v>
       </c>
       <c r="D496" t="n">
-        <v>0</v>
+        <v>51297189.16256158</v>
       </c>
       <c r="E496" t="n">
-        <v>0</v>
+        <v>-12275826.63743842</v>
       </c>
     </row>
     <row r="497">
@@ -8899,13 +8899,13 @@
         <v>44463</v>
       </c>
       <c r="C498" t="n">
-        <v>0</v>
+        <v>34174215.1</v>
       </c>
       <c r="D498" t="n">
-        <v>0</v>
+        <v>43333277.83251232</v>
       </c>
       <c r="E498" t="n">
-        <v>0</v>
+        <v>9159062.732512318</v>
       </c>
     </row>
     <row r="499">
@@ -8950,13 +8950,13 @@
         <v>44484</v>
       </c>
       <c r="C501" t="n">
-        <v>0</v>
+        <v>45969143</v>
       </c>
       <c r="D501" t="n">
-        <v>0</v>
+        <v>45807641.37931035</v>
       </c>
       <c r="E501" t="n">
-        <v>0</v>
+        <v>-161501.6206896454</v>
       </c>
     </row>
     <row r="502">
@@ -8967,13 +8967,13 @@
         <v>44491</v>
       </c>
       <c r="C502" t="n">
-        <v>0</v>
+        <v>21843025.8</v>
       </c>
       <c r="D502" t="n">
-        <v>0</v>
+        <v>37013733.00492611</v>
       </c>
       <c r="E502" t="n">
-        <v>0</v>
+        <v>15170707.20492611</v>
       </c>
     </row>
     <row r="503">
@@ -8984,13 +8984,13 @@
         <v>44498</v>
       </c>
       <c r="C503" t="n">
-        <v>0</v>
+        <v>21114347.6</v>
       </c>
       <c r="D503" t="n">
-        <v>0</v>
+        <v>39539093.59605911</v>
       </c>
       <c r="E503" t="n">
-        <v>0</v>
+        <v>18424745.99605911</v>
       </c>
     </row>
     <row r="504">
@@ -9001,13 +9001,13 @@
         <v>44505</v>
       </c>
       <c r="C504" t="n">
-        <v>0</v>
+        <v>21095319.5</v>
       </c>
       <c r="D504" t="n">
-        <v>0</v>
+        <v>39660918.22660098</v>
       </c>
       <c r="E504" t="n">
-        <v>0</v>
+        <v>18565598.72660098</v>
       </c>
     </row>
     <row r="505">
@@ -9103,13 +9103,13 @@
         <v>44547</v>
       </c>
       <c r="C510" t="n">
-        <v>0</v>
+        <v>91163116.5</v>
       </c>
       <c r="D510" t="n">
-        <v>0</v>
+        <v>62996021.67487685</v>
       </c>
       <c r="E510" t="n">
-        <v>0</v>
+        <v>-28167094.82512315</v>
       </c>
     </row>
     <row r="511">
@@ -9120,13 +9120,13 @@
         <v>44554</v>
       </c>
       <c r="C511" t="n">
-        <v>0</v>
+        <v>24998298</v>
       </c>
       <c r="D511" t="n">
-        <v>0</v>
+        <v>44453940.88669951</v>
       </c>
       <c r="E511" t="n">
-        <v>0</v>
+        <v>19455642.88669951</v>
       </c>
     </row>
     <row r="512">
@@ -9188,13 +9188,13 @@
         <v>44582</v>
       </c>
       <c r="C515" t="n">
-        <v>0</v>
+        <v>62291420.90000001</v>
       </c>
       <c r="D515" t="n">
-        <v>0</v>
+        <v>51547637.43842365</v>
       </c>
       <c r="E515" t="n">
-        <v>0</v>
+        <v>-10743783.46157636</v>
       </c>
     </row>
     <row r="516">
@@ -9205,13 +9205,13 @@
         <v>44589</v>
       </c>
       <c r="C516" t="n">
-        <v>0</v>
+        <v>22340926.1</v>
       </c>
       <c r="D516" t="n">
-        <v>0</v>
+        <v>40526707.38916256</v>
       </c>
       <c r="E516" t="n">
-        <v>0</v>
+        <v>18185781.28916256</v>
       </c>
     </row>
     <row r="517">
@@ -9324,13 +9324,13 @@
         <v>44638</v>
       </c>
       <c r="C523" t="n">
-        <v>0</v>
+        <v>110139317.5</v>
       </c>
       <c r="D523" t="n">
-        <v>0</v>
+        <v>69629462.06896552</v>
       </c>
       <c r="E523" t="n">
-        <v>0</v>
+        <v>-40509855.43103448</v>
       </c>
     </row>
     <row r="524">
@@ -9375,13 +9375,13 @@
         <v>44652</v>
       </c>
       <c r="C526" t="n">
-        <v>0</v>
+        <v>36196912.3</v>
       </c>
       <c r="D526" t="n">
-        <v>0</v>
+        <v>40154251.2315271</v>
       </c>
       <c r="E526" t="n">
-        <v>0</v>
+        <v>3957338.931527101</v>
       </c>
     </row>
     <row r="527">
@@ -9613,13 +9613,13 @@
         <v>44701</v>
       </c>
       <c r="C540" t="n">
-        <v>0</v>
+        <v>131732188.5</v>
       </c>
       <c r="D540" t="n">
-        <v>0</v>
+        <v>78160788.17733991</v>
       </c>
       <c r="E540" t="n">
-        <v>0</v>
+        <v>-53571400.32266009</v>
       </c>
     </row>
     <row r="541">
@@ -9647,13 +9647,13 @@
         <v>44708</v>
       </c>
       <c r="C542" t="n">
-        <v>0</v>
+        <v>27988779.9</v>
       </c>
       <c r="D542" t="n">
-        <v>0</v>
+        <v>37490626.60098522</v>
       </c>
       <c r="E542" t="n">
-        <v>0</v>
+        <v>9501846.700985223</v>
       </c>
     </row>
     <row r="543">
@@ -9919,13 +9919,13 @@
         <v>44764</v>
       </c>
       <c r="C558" t="n">
-        <v>0</v>
+        <v>165966286.9</v>
       </c>
       <c r="D558" t="n">
-        <v>0</v>
+        <v>92751129.06403941</v>
       </c>
       <c r="E558" t="n">
-        <v>0</v>
+        <v>-73215157.8359606</v>
       </c>
     </row>
     <row r="559">
@@ -10021,13 +10021,13 @@
         <v>44785</v>
       </c>
       <c r="C564" t="n">
-        <v>0</v>
+        <v>57731015.9</v>
       </c>
       <c r="D564" t="n">
-        <v>0</v>
+        <v>43545466.9950739</v>
       </c>
       <c r="E564" t="n">
-        <v>0</v>
+        <v>-14185548.9049261</v>
       </c>
     </row>
     <row r="565">
@@ -10055,13 +10055,13 @@
         <v>44792</v>
       </c>
       <c r="C566" t="n">
-        <v>0</v>
+        <v>27191059.9</v>
       </c>
       <c r="D566" t="n">
-        <v>0</v>
+        <v>37502971.42857143</v>
       </c>
       <c r="E566" t="n">
-        <v>0</v>
+        <v>10311911.52857143</v>
       </c>
     </row>
     <row r="567">
@@ -10106,13 +10106,13 @@
         <v>44803</v>
       </c>
       <c r="C569" t="n">
-        <v>0</v>
+        <v>25307176.1</v>
       </c>
       <c r="D569" t="n">
-        <v>0</v>
+        <v>19100151.72413793</v>
       </c>
       <c r="E569" t="n">
-        <v>0</v>
+        <v>-6207024.375862069</v>
       </c>
     </row>
     <row r="570">
@@ -10157,13 +10157,13 @@
         <v>44813</v>
       </c>
       <c r="C572" t="n">
-        <v>0</v>
+        <v>30323235.5</v>
       </c>
       <c r="D572" t="n">
-        <v>0</v>
+        <v>37219502.46305419</v>
       </c>
       <c r="E572" t="n">
-        <v>0</v>
+        <v>6896266.963054188</v>
       </c>
     </row>
     <row r="573">
@@ -10446,13 +10446,13 @@
         <v>44873</v>
       </c>
       <c r="C589" t="n">
-        <v>0</v>
+        <v>157253251.5</v>
       </c>
       <c r="D589" t="n">
-        <v>0</v>
+        <v>71840712.31527095</v>
       </c>
       <c r="E589" t="n">
-        <v>0</v>
+        <v>-85412539.18472905</v>
       </c>
     </row>
     <row r="590">
@@ -10599,13 +10599,13 @@
         <v>44904</v>
       </c>
       <c r="C598" t="n">
-        <v>0</v>
+        <v>90105983.10000001</v>
       </c>
       <c r="D598" t="n">
-        <v>0</v>
+        <v>51471558.62068966</v>
       </c>
       <c r="E598" t="n">
-        <v>0</v>
+        <v>-38634424.47931035</v>
       </c>
     </row>
     <row r="599">
@@ -10650,13 +10650,13 @@
         <v>44915</v>
       </c>
       <c r="C601" t="n">
-        <v>0</v>
+        <v>29278113.3</v>
       </c>
       <c r="D601" t="n">
-        <v>0</v>
+        <v>22521962.56157635</v>
       </c>
       <c r="E601" t="n">
-        <v>0</v>
+        <v>-6756150.738423649</v>
       </c>
     </row>
     <row r="602">
@@ -10854,13 +10854,13 @@
         <v>44957</v>
       </c>
       <c r="C613" t="n">
-        <v>0</v>
+        <v>122099047.6</v>
       </c>
       <c r="D613" t="n">
-        <v>0</v>
+        <v>53059077.83251232</v>
       </c>
       <c r="E613" t="n">
-        <v>0</v>
+        <v>-69039969.76748769</v>
       </c>
     </row>
     <row r="614">
@@ -10939,13 +10939,13 @@
         <v>44974</v>
       </c>
       <c r="C618" t="n">
-        <v>0</v>
+        <v>53439832.3</v>
       </c>
       <c r="D618" t="n">
-        <v>0</v>
+        <v>43646630.54187192</v>
       </c>
       <c r="E618" t="n">
-        <v>0</v>
+        <v>-9793201.758128084</v>
       </c>
     </row>
     <row r="619">
@@ -10956,13 +10956,13 @@
         <v>44978</v>
       </c>
       <c r="C619" t="n">
-        <v>0</v>
+        <v>15854518</v>
       </c>
       <c r="D619" t="n">
-        <v>0</v>
+        <v>21278034.48275862</v>
       </c>
       <c r="E619" t="n">
-        <v>0</v>
+        <v>5423516.482758623</v>
       </c>
     </row>
     <row r="620">
@@ -11126,13 +11126,13 @@
         <v>45013</v>
       </c>
       <c r="C629" t="n">
-        <v>0</v>
+        <v>81482574.8</v>
       </c>
       <c r="D629" t="n">
-        <v>0</v>
+        <v>32819073.89162562</v>
       </c>
       <c r="E629" t="n">
-        <v>0</v>
+        <v>-48663500.90837438</v>
       </c>
     </row>
     <row r="630">
@@ -11143,13 +11143,13 @@
         <v>45016</v>
       </c>
       <c r="C630" t="n">
-        <v>0</v>
+        <v>21699289.6</v>
       </c>
       <c r="D630" t="n">
-        <v>0</v>
+        <v>37258703.44827586</v>
       </c>
       <c r="E630" t="n">
-        <v>0</v>
+        <v>15559413.84827586</v>
       </c>
     </row>
     <row r="631">
@@ -11262,13 +11262,13 @@
         <v>45041</v>
       </c>
       <c r="C637" t="n">
-        <v>0</v>
+        <v>54410779</v>
       </c>
       <c r="D637" t="n">
-        <v>0</v>
+        <v>27446482.75862069</v>
       </c>
       <c r="E637" t="n">
-        <v>0</v>
+        <v>-26964296.24137931</v>
       </c>
     </row>
     <row r="638">
@@ -11296,13 +11296,13 @@
         <v>45048</v>
       </c>
       <c r="C639" t="n">
-        <v>0</v>
+        <v>19224118.7</v>
       </c>
       <c r="D639" t="n">
-        <v>0</v>
+        <v>20193772.41379311</v>
       </c>
       <c r="E639" t="n">
-        <v>0</v>
+        <v>969653.7137931064</v>
       </c>
     </row>
     <row r="640">
@@ -11551,13 +11551,13 @@
         <v>45100</v>
       </c>
       <c r="C654" t="n">
-        <v>0</v>
+        <v>167509838</v>
       </c>
       <c r="D654" t="n">
-        <v>0</v>
+        <v>96929205.91133004</v>
       </c>
       <c r="E654" t="n">
-        <v>0</v>
+        <v>-70580632.08866996</v>
       </c>
     </row>
     <row r="655">
@@ -11755,13 +11755,13 @@
         <v>45142</v>
       </c>
       <c r="C666" t="n">
-        <v>0</v>
+        <v>139226332.6</v>
       </c>
       <c r="D666" t="n">
-        <v>0</v>
+        <v>79485097.5369458</v>
       </c>
       <c r="E666" t="n">
-        <v>0</v>
+        <v>-59741235.06305419</v>
       </c>
     </row>
     <row r="667">
@@ -11772,13 +11772,13 @@
         <v>45146</v>
       </c>
       <c r="C667" t="n">
-        <v>0</v>
+        <v>17200576.8</v>
       </c>
       <c r="D667" t="n">
-        <v>0</v>
+        <v>26060606.89655172</v>
       </c>
       <c r="E667" t="n">
-        <v>0</v>
+        <v>8860030.096551724</v>
       </c>
     </row>
     <row r="668">
@@ -11806,13 +11806,13 @@
         <v>45153</v>
       </c>
       <c r="C669" t="n">
-        <v>0</v>
+        <v>22467672.8</v>
       </c>
       <c r="D669" t="n">
-        <v>0</v>
+        <v>23604827.5862069</v>
       </c>
       <c r="E669" t="n">
-        <v>0</v>
+        <v>1137154.786206897</v>
       </c>
     </row>
     <row r="670">
@@ -11823,13 +11823,13 @@
         <v>45156</v>
       </c>
       <c r="C670" t="n">
-        <v>0</v>
+        <v>20236209.9</v>
       </c>
       <c r="D670" t="n">
-        <v>0</v>
+        <v>36215220.68965517</v>
       </c>
       <c r="E670" t="n">
-        <v>0</v>
+        <v>15979010.78965517</v>
       </c>
     </row>
     <row r="671">
@@ -11976,13 +11976,13 @@
         <v>45188</v>
       </c>
       <c r="C679" t="n">
-        <v>0</v>
+        <v>74973467.2</v>
       </c>
       <c r="D679" t="n">
-        <v>0</v>
+        <v>32690530.04926109</v>
       </c>
       <c r="E679" t="n">
-        <v>0</v>
+        <v>-42282937.15073891</v>
       </c>
     </row>
     <row r="680">
@@ -12095,13 +12095,13 @@
         <v>45212</v>
       </c>
       <c r="C686" t="n">
-        <v>0</v>
+        <v>68051521.59999999</v>
       </c>
       <c r="D686" t="n">
-        <v>0</v>
+        <v>50095073.89162562</v>
       </c>
       <c r="E686" t="n">
-        <v>0</v>
+        <v>-17956447.70837437</v>
       </c>
     </row>
     <row r="687">
@@ -12180,13 +12180,13 @@
         <v>45230</v>
       </c>
       <c r="C691" t="n">
-        <v>0</v>
+        <v>42776827.90000001</v>
       </c>
       <c r="D691" t="n">
-        <v>0</v>
+        <v>27269619.7044335</v>
       </c>
       <c r="E691" t="n">
-        <v>0</v>
+        <v>-15507208.19556651</v>
       </c>
     </row>
     <row r="692">
@@ -12265,13 +12265,13 @@
         <v>45247</v>
       </c>
       <c r="C696" t="n">
-        <v>0</v>
+        <v>47797029.2</v>
       </c>
       <c r="D696" t="n">
-        <v>0</v>
+        <v>40791858.12807883</v>
       </c>
       <c r="E696" t="n">
-        <v>0</v>
+        <v>-7005171.071921177</v>
       </c>
     </row>
     <row r="697">
